--- a/layout.xlsx
+++ b/layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hacking\Documents\GameHam2020\GLOBALGAMEHAM2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B95C2-517D-4A1B-AC1B-BE56DCD13C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8164B7F2-61D7-4171-8644-F3CF9F4A723A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" xr2:uid="{6DB9FED4-6DB3-49F6-B985-8E2B4764C11F}"/>
   </bookViews>
@@ -130,13 +130,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,8 +150,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,11 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -314,68 +310,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="7" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="9" builtinId="38"/>
-    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
-    <cellStyle name="Accent3" xfId="8" builtinId="37"/>
-    <cellStyle name="Accent6" xfId="11" builtinId="49"/>
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Accent3" xfId="7" builtinId="37"/>
+    <cellStyle name="Accent6" xfId="10" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,346 +682,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C912C7C6-83A3-4946-8BA3-B1F6544D6D45}">
-  <dimension ref="A1:AR59"/>
+  <dimension ref="A1:AK59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="40" width="3.5703125" customWidth="1"/>
+    <col min="1" max="33" width="3.5703125" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="3.5703125" customWidth="1"/>
     <col min="41" max="41" width="14.28515625" customWidth="1"/>
     <col min="42" max="42" width="12.42578125" customWidth="1"/>
     <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:44" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="32"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="32"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" t="s">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="31"/>
+      <c r="AH2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AI2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+    <row r="3" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="9"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="8"/>
+      <c r="AH3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AI3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:37" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="33"/>
-    </row>
-    <row r="5" spans="1:44" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="26"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="8"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="9"/>
-      <c r="AP5" s="12" t="s">
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="32"/>
+    </row>
+    <row r="5" spans="1:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="25"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="8"/>
+      <c r="AI5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AR5" s="25" t="s">
+      <c r="AK5" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+    <row r="6" spans="1:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="9"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="9"/>
-      <c r="AP6" s="13" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="8"/>
+      <c r="AI6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AR6" s="15" t="s">
+      <c r="AK6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+    <row r="7" spans="1:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="23"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="26"/>
-      <c r="AP7" s="14" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="22"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="25"/>
+      <c r="AI7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="16" t="s">
+      <c r="AK7" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:44" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="24"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:44" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+    <row r="8" spans="1:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="23"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:37" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:44" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="9"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="26"/>
-    </row>
-    <row r="12" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
+      <c r="G10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:37" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="26"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="27" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="25"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="7" t="s">
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="28"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="27"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="26"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="25"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
